--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_2_ABCDE/ABE/20/seed2/result_data_KNN.xlsx
@@ -465,7 +465,7 @@
         <v>-20.51</v>
       </c>
       <c r="B2" t="n">
-        <v>5.452</v>
+        <v>5.965</v>
       </c>
       <c r="C2" t="n">
         <v>-10.94</v>
@@ -479,7 +479,7 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>-21.424</v>
+        <v>-21.62</v>
       </c>
       <c r="B3" t="n">
         <v>4.03</v>
@@ -491,7 +491,7 @@
         <v>-8.949999999999999</v>
       </c>
       <c r="E3" t="n">
-        <v>16.442</v>
+        <v>16.231</v>
       </c>
     </row>
     <row r="4">
@@ -644,7 +644,7 @@
         <v>-6.85</v>
       </c>
       <c r="E12" t="n">
-        <v>17.356</v>
+        <v>17.896</v>
       </c>
     </row>
     <row r="13">
@@ -666,7 +666,7 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>-21.42</v>
+        <v>-21.5</v>
       </c>
       <c r="B14" t="n">
         <v>4.04</v>
@@ -700,7 +700,7 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>-21.26</v>
+        <v>-21.696</v>
       </c>
       <c r="B16" t="n">
         <v>3.96</v>
@@ -737,7 +737,7 @@
         <v>-23.4</v>
       </c>
       <c r="B18" t="n">
-        <v>5.290000000000001</v>
+        <v>5.427</v>
       </c>
       <c r="C18" t="n">
         <v>-15.14</v>
@@ -785,7 +785,7 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>-20.458</v>
+        <v>-20.325</v>
       </c>
       <c r="B21" t="n">
         <v>9.52</v>
@@ -819,7 +819,7 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>-20.59</v>
+        <v>-20.536</v>
       </c>
       <c r="B23" t="n">
         <v>7.87</v>
@@ -839,7 +839,7 @@
         <v>-20.85</v>
       </c>
       <c r="B24" t="n">
-        <v>4.848</v>
+        <v>4.833</v>
       </c>
       <c r="C24" t="n">
         <v>-10.44</v>
@@ -848,15 +848,15 @@
         <v>-7.7</v>
       </c>
       <c r="E24" t="n">
-        <v>17.076</v>
+        <v>17.019</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>-20.94600000000001</v>
+        <v>-21.217</v>
       </c>
       <c r="B25" t="n">
-        <v>6.58</v>
+        <v>5.854</v>
       </c>
       <c r="C25" t="n">
         <v>-11.07</v>
@@ -865,12 +865,12 @@
         <v>-7.4</v>
       </c>
       <c r="E25" t="n">
-        <v>17.002</v>
+        <v>17.149</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>-21.39</v>
+        <v>-21.268</v>
       </c>
       <c r="B26" t="n">
         <v>6.56</v>
@@ -890,7 +890,7 @@
         <v>-21.86</v>
       </c>
       <c r="B27" t="n">
-        <v>5.804</v>
+        <v>5.615</v>
       </c>
       <c r="C27" t="n">
         <v>-11.92</v>
@@ -921,7 +921,7 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>-21.258</v>
+        <v>-21.116</v>
       </c>
       <c r="B29" t="n">
         <v>7.52</v>
@@ -941,7 +941,7 @@
         <v>-21.31</v>
       </c>
       <c r="B30" t="n">
-        <v>6.992</v>
+        <v>6.410000000000001</v>
       </c>
       <c r="C30" t="n">
         <v>-10.71</v>
@@ -958,7 +958,7 @@
         <v>-21.76</v>
       </c>
       <c r="B31" t="n">
-        <v>5.593999999999999</v>
+        <v>6.047000000000001</v>
       </c>
       <c r="C31" t="n">
         <v>-11.3</v>
@@ -1094,7 +1094,7 @@
         <v>-18.76</v>
       </c>
       <c r="B39" t="n">
-        <v>8.226000000000001</v>
+        <v>7.179</v>
       </c>
       <c r="C39" t="n">
         <v>-10.58</v>
@@ -1108,7 +1108,7 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>-19.652</v>
+        <v>-20.391</v>
       </c>
       <c r="B40" t="n">
         <v>10.75</v>
@@ -1137,7 +1137,7 @@
         <v>-8.720000000000001</v>
       </c>
       <c r="E41" t="n">
-        <v>16.734</v>
+        <v>16.526</v>
       </c>
     </row>
     <row r="42">
@@ -1145,7 +1145,7 @@
         <v>-18.32</v>
       </c>
       <c r="B42" t="n">
-        <v>7.403999999999999</v>
+        <v>8.242999999999999</v>
       </c>
       <c r="C42" t="n">
         <v>-13.45</v>
@@ -1247,7 +1247,7 @@
         <v>-21.86</v>
       </c>
       <c r="B48" t="n">
-        <v>5.486</v>
+        <v>5.274</v>
       </c>
       <c r="C48" t="n">
         <v>-10.86</v>
@@ -1290,7 +1290,7 @@
         <v>-8.029999999999999</v>
       </c>
       <c r="E50" t="n">
-        <v>16.418</v>
+        <v>16.442</v>
       </c>
     </row>
     <row r="51">
@@ -1298,7 +1298,7 @@
         <v>-22</v>
       </c>
       <c r="B51" t="n">
-        <v>6.149999999999999</v>
+        <v>6.802</v>
       </c>
       <c r="C51" t="n">
         <v>-13.17</v>
@@ -1315,7 +1315,7 @@
         <v>-21.69</v>
       </c>
       <c r="B52" t="n">
-        <v>5.252</v>
+        <v>5.952</v>
       </c>
       <c r="C52" t="n">
         <v>-14.35</v>
@@ -1329,7 +1329,7 @@
     </row>
     <row r="53">
       <c r="A53" t="n">
-        <v>-21.192</v>
+        <v>-21.257</v>
       </c>
       <c r="B53" t="n">
         <v>5.82</v>
@@ -1341,7 +1341,7 @@
         <v>-7.23</v>
       </c>
       <c r="E53" t="n">
-        <v>16.474</v>
+        <v>16.581</v>
       </c>
     </row>
     <row r="54">
@@ -1366,7 +1366,7 @@
         <v>-24</v>
       </c>
       <c r="B55" t="n">
-        <v>4.840000000000001</v>
+        <v>5.593</v>
       </c>
       <c r="C55" t="n">
         <v>-15.79</v>
@@ -1383,7 +1383,7 @@
         <v>-21.95</v>
       </c>
       <c r="B56" t="n">
-        <v>5.452</v>
+        <v>5.5</v>
       </c>
       <c r="C56" t="n">
         <v>-13.63</v>
@@ -1392,15 +1392,15 @@
         <v>-8.92</v>
       </c>
       <c r="E56" t="n">
-        <v>16.326</v>
+        <v>16.236</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
-        <v>-21.752</v>
+        <v>-22.053</v>
       </c>
       <c r="B57" t="n">
-        <v>5.488</v>
+        <v>5.415999999999999</v>
       </c>
       <c r="C57" t="n">
         <v>-15.01</v>
@@ -1409,7 +1409,7 @@
         <v>-8.31</v>
       </c>
       <c r="E57" t="n">
-        <v>16.602</v>
+        <v>16.416</v>
       </c>
     </row>
     <row r="58">
@@ -1426,12 +1426,12 @@
         <v>-7.51</v>
       </c>
       <c r="E58" t="n">
-        <v>16.546</v>
+        <v>16.569</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
-        <v>-22.118</v>
+        <v>-22.404</v>
       </c>
       <c r="B59" t="n">
         <v>4.58</v>
@@ -1451,7 +1451,7 @@
         <v>-21.73</v>
       </c>
       <c r="B60" t="n">
-        <v>5.15</v>
+        <v>5.831</v>
       </c>
       <c r="C60" t="n">
         <v>-13.33</v>
@@ -1477,7 +1477,7 @@
         <v>-7.97</v>
       </c>
       <c r="E61" t="n">
-        <v>16.72</v>
+        <v>16.854</v>
       </c>
     </row>
     <row r="62">
@@ -1511,7 +1511,7 @@
         <v>-7.14</v>
       </c>
       <c r="E63" t="n">
-        <v>17.356</v>
+        <v>17.661</v>
       </c>
     </row>
     <row r="64">
@@ -1528,12 +1528,12 @@
         <v>-6.84</v>
       </c>
       <c r="E64" t="n">
-        <v>17.554</v>
+        <v>17.642</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
-        <v>-21.322</v>
+        <v>-21.418</v>
       </c>
       <c r="B65" t="n">
         <v>6.69</v>
@@ -1601,7 +1601,7 @@
     </row>
     <row r="69">
       <c r="A69" t="n">
-        <v>-21.42</v>
+        <v>-21.44</v>
       </c>
       <c r="B69" t="n">
         <v>4.98</v>
@@ -1630,7 +1630,7 @@
         <v>-7.03</v>
       </c>
       <c r="E70" t="n">
-        <v>17.798</v>
+        <v>17.661</v>
       </c>
     </row>
     <row r="71">
@@ -1664,7 +1664,7 @@
         <v>-7.37</v>
       </c>
       <c r="E72" t="n">
-        <v>17.036</v>
+        <v>17.027</v>
       </c>
     </row>
     <row r="73">
@@ -1672,7 +1672,7 @@
         <v>-20.59</v>
       </c>
       <c r="B73" t="n">
-        <v>7.343999999999999</v>
+        <v>6.804</v>
       </c>
       <c r="C73" t="n">
         <v>-15.02</v>
@@ -1689,7 +1689,7 @@
         <v>-19.27</v>
       </c>
       <c r="B74" t="n">
-        <v>7.676</v>
+        <v>8.565000000000001</v>
       </c>
       <c r="C74" t="n">
         <v>-12.97</v>
@@ -1771,7 +1771,7 @@
     </row>
     <row r="79">
       <c r="A79" t="n">
-        <v>-21.426</v>
+        <v>-21.251</v>
       </c>
       <c r="B79" t="n">
         <v>8.949999999999999</v>
@@ -1839,7 +1839,7 @@
     </row>
     <row r="83">
       <c r="A83" t="n">
-        <v>-20.782</v>
+        <v>-21.338</v>
       </c>
       <c r="B83" t="n">
         <v>5.84</v>
@@ -1902,7 +1902,7 @@
         <v>-8.17</v>
       </c>
       <c r="E86" t="n">
-        <v>16.418</v>
+        <v>16.638</v>
       </c>
     </row>
     <row r="87">
@@ -1944,7 +1944,7 @@
         <v>-21.45</v>
       </c>
       <c r="B89" t="n">
-        <v>4.714</v>
+        <v>4.942</v>
       </c>
       <c r="C89" t="n">
         <v>-10.11</v>
@@ -1953,7 +1953,7 @@
         <v>-7</v>
       </c>
       <c r="E89" t="n">
-        <v>17.288</v>
+        <v>17.328</v>
       </c>
     </row>
     <row r="90">
@@ -1961,7 +1961,7 @@
         <v>-21.82</v>
       </c>
       <c r="B90" t="n">
-        <v>5.376</v>
+        <v>5.767</v>
       </c>
       <c r="C90" t="n">
         <v>-12.06</v>
@@ -1975,7 +1975,7 @@
     </row>
     <row r="91">
       <c r="A91" t="n">
-        <v>-21.652</v>
+        <v>-21.462</v>
       </c>
       <c r="B91" t="n">
         <v>4.28</v>
@@ -1995,7 +1995,7 @@
         <v>-21.6</v>
       </c>
       <c r="B92" t="n">
-        <v>5.242</v>
+        <v>5.853</v>
       </c>
       <c r="C92" t="n">
         <v>-9.49</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="93">
       <c r="A93" t="n">
-        <v>-21.856</v>
+        <v>-21.32399999999999</v>
       </c>
       <c r="B93" t="n">
         <v>7.55</v>
@@ -2106,7 +2106,7 @@
         <v>-9.33</v>
       </c>
       <c r="E98" t="n">
-        <v>16.148</v>
+        <v>16.244</v>
       </c>
     </row>
     <row r="99">
@@ -2128,7 +2128,7 @@
     </row>
     <row r="100">
       <c r="A100" t="n">
-        <v>-22.124</v>
+        <v>-21.672</v>
       </c>
       <c r="B100" t="n">
         <v>5.09</v>
@@ -2140,7 +2140,7 @@
         <v>-7.71</v>
       </c>
       <c r="E100" t="n">
-        <v>16.712</v>
+        <v>16.514</v>
       </c>
     </row>
     <row r="101">
@@ -2174,7 +2174,7 @@
         <v>-8.630000000000001</v>
       </c>
       <c r="E102" t="n">
-        <v>16.272</v>
+        <v>16.446</v>
       </c>
     </row>
   </sheetData>
